--- a/input/elsoc/Listado_Variables_ELSOC_Longitudinal_2016_2017_2018_2019.xlsx
+++ b/input/elsoc/Listado_Variables_ELSOC_Longitudinal_2016_2017_2018_2019.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentina Andrade\Dropbox\2. Trabajo\FONDECYT-Monica\elsoc-justice\input\elsoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentina Andrade\Documents\GitHub\coes\elsoc-justice\input\elsoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897F4F03-15E5-4DF4-A521-0ED166089BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43CA18F-F3D0-4FE5-A0AD-52021619DC90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="-10910" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7170" yWindow="-10910" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descripcion" sheetId="2" r:id="rId1"/>
     <sheet name="Listado_Variables" sheetId="1" r:id="rId2"/>
     <sheet name="Variables" sheetId="3" r:id="rId3"/>
+    <sheet name="tabla1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Listado_Variables!$A$1:$Q$575</definedName>
@@ -160,8 +161,26 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C1BF19DB-BAA2-4DEB-97C4-E5F21E887D5F}</author>
+  </authors>
+  <commentList>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{C1BF19DB-BAA2-4DEB-97C4-E5F21E887D5F}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Solo de acciones normativas</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7114" uniqueCount="1934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7410" uniqueCount="1934">
   <si>
     <t>Modulo</t>
   </si>
@@ -5976,7 +5995,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6015,6 +6034,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -6562,12 +6587,20 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B15" dT="2020-11-18T23:52:57.51" personId="{03E837D8-836A-4B1D-BEA8-87914D3433F4}" id="{C1BF19DB-BAA2-4DEB-97C4-E5F21E887D5F}">
+    <text>Solo de acciones normativas</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42855,8 +42888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1005DD-3C1E-BE46-BCF7-C91CDCAC49A2}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -43810,4 +43843,965 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5740A22-4F96-47AE-A857-89625ECE3645}">
+  <dimension ref="A1:P24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1914</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1915</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F2" t="s">
+        <v>508</v>
+      </c>
+      <c r="G2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H2" t="s">
+        <v>607</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E3" t="s">
+        <v>507</v>
+      </c>
+      <c r="F3" t="s">
+        <v>509</v>
+      </c>
+      <c r="G3" t="s">
+        <v>400</v>
+      </c>
+      <c r="H3" t="s">
+        <v>608</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F4" t="s">
+        <v>510</v>
+      </c>
+      <c r="G4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H4" t="s">
+        <v>609</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E5" t="s">
+        <v>507</v>
+      </c>
+      <c r="F5" t="s">
+        <v>511</v>
+      </c>
+      <c r="G5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H5" t="s">
+        <v>610</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" t="s">
+        <v>512</v>
+      </c>
+      <c r="F6" t="s">
+        <v>513</v>
+      </c>
+      <c r="G6" t="s">
+        <v>403</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1586</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1586</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G7" t="s">
+        <v>404</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1587</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1587</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1587</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E8" t="s">
+        <v>512</v>
+      </c>
+      <c r="F8" t="s">
+        <v>515</v>
+      </c>
+      <c r="G8" t="s">
+        <v>405</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1588</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1588</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1588</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D9" t="s">
+        <v>359</v>
+      </c>
+      <c r="E9" t="s">
+        <v>512</v>
+      </c>
+      <c r="F9" t="s">
+        <v>516</v>
+      </c>
+      <c r="G9" t="s">
+        <v>406</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1589</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1589</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1589</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D10" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10" t="s">
+        <v>585</v>
+      </c>
+      <c r="F10" t="s">
+        <v>587</v>
+      </c>
+      <c r="G10" t="s">
+        <v>472</v>
+      </c>
+      <c r="I10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K10" t="s">
+        <v>472</v>
+      </c>
+      <c r="L10" t="s">
+        <v>472</v>
+      </c>
+      <c r="M10" t="s">
+        <v>472</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E11" t="s">
+        <v>585</v>
+      </c>
+      <c r="F11" t="s">
+        <v>588</v>
+      </c>
+      <c r="G11" t="s">
+        <v>473</v>
+      </c>
+      <c r="I11" t="s">
+        <v>473</v>
+      </c>
+      <c r="K11" t="s">
+        <v>473</v>
+      </c>
+      <c r="L11" t="s">
+        <v>473</v>
+      </c>
+      <c r="M11" t="s">
+        <v>473</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D12" t="s">
+        <v>372</v>
+      </c>
+      <c r="E12" t="s">
+        <v>585</v>
+      </c>
+      <c r="F12" t="s">
+        <v>589</v>
+      </c>
+      <c r="G12" t="s">
+        <v>474</v>
+      </c>
+      <c r="I12" t="s">
+        <v>474</v>
+      </c>
+      <c r="K12" t="s">
+        <v>474</v>
+      </c>
+      <c r="L12" t="s">
+        <v>474</v>
+      </c>
+      <c r="M12" t="s">
+        <v>474</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D13" t="s">
+        <v>371</v>
+      </c>
+      <c r="E13" t="s">
+        <v>582</v>
+      </c>
+      <c r="G13" t="s">
+        <v>469</v>
+      </c>
+      <c r="I13" t="s">
+        <v>469</v>
+      </c>
+      <c r="K13" t="s">
+        <v>469</v>
+      </c>
+      <c r="L13" t="s">
+        <v>469</v>
+      </c>
+      <c r="M13" t="s">
+        <v>469</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D14" t="s">
+        <v>371</v>
+      </c>
+      <c r="E14" t="s">
+        <v>583</v>
+      </c>
+      <c r="F14" t="s">
+        <v>584</v>
+      </c>
+      <c r="G14" t="s">
+        <v>470</v>
+      </c>
+      <c r="I14" t="s">
+        <v>470</v>
+      </c>
+      <c r="K14" t="s">
+        <v>470</v>
+      </c>
+      <c r="L14" t="s">
+        <v>470</v>
+      </c>
+      <c r="M14" t="s">
+        <v>470</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D15" t="s">
+        <v>360</v>
+      </c>
+      <c r="E15" t="s">
+        <v>517</v>
+      </c>
+      <c r="F15" t="s">
+        <v>519</v>
+      </c>
+      <c r="G15" t="s">
+        <v>408</v>
+      </c>
+      <c r="H15" t="s">
+        <v>612</v>
+      </c>
+      <c r="I15" t="s">
+        <v>408</v>
+      </c>
+      <c r="J15" t="s">
+        <v>408</v>
+      </c>
+      <c r="K15" t="s">
+        <v>408</v>
+      </c>
+      <c r="L15" t="s">
+        <v>408</v>
+      </c>
+      <c r="M15" t="s">
+        <v>408</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D16" t="s">
+        <v>360</v>
+      </c>
+      <c r="E16" t="s">
+        <v>517</v>
+      </c>
+      <c r="F16" t="s">
+        <v>520</v>
+      </c>
+      <c r="G16" t="s">
+        <v>409</v>
+      </c>
+      <c r="H16" t="s">
+        <v>613</v>
+      </c>
+      <c r="I16" t="s">
+        <v>409</v>
+      </c>
+      <c r="J16" t="s">
+        <v>409</v>
+      </c>
+      <c r="K16" t="s">
+        <v>409</v>
+      </c>
+      <c r="L16" t="s">
+        <v>409</v>
+      </c>
+      <c r="M16" t="s">
+        <v>409</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D17" t="s">
+        <v>368</v>
+      </c>
+      <c r="E17" t="s">
+        <v>557</v>
+      </c>
+      <c r="G17" t="s">
+        <v>444</v>
+      </c>
+      <c r="H17" t="s">
+        <v>425</v>
+      </c>
+      <c r="I17" t="s">
+        <v>444</v>
+      </c>
+      <c r="J17" t="s">
+        <v>444</v>
+      </c>
+      <c r="K17" t="s">
+        <v>444</v>
+      </c>
+      <c r="L17" t="s">
+        <v>444</v>
+      </c>
+      <c r="M17" t="s">
+        <v>444</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D18" t="s">
+        <v>368</v>
+      </c>
+      <c r="E18" t="s">
+        <v>557</v>
+      </c>
+      <c r="F18" t="s">
+        <v>533</v>
+      </c>
+      <c r="G18" t="s">
+        <v>445</v>
+      </c>
+      <c r="H18" t="s">
+        <v>426</v>
+      </c>
+      <c r="I18" t="s">
+        <v>478</v>
+      </c>
+      <c r="J18" t="s">
+        <v>478</v>
+      </c>
+      <c r="K18" t="s">
+        <v>478</v>
+      </c>
+      <c r="L18" t="s">
+        <v>478</v>
+      </c>
+      <c r="M18" t="s">
+        <v>478</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C19" t="s">
+        <v>652</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1786</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1766</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1766</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1766</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C20" t="s">
+        <v>652</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1787</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1767</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1767</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1767</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C21" t="s">
+        <v>652</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1788</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1768</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1768</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1768</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C22" t="s">
+        <v>652</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1789</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1769</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1769</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1769</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C23" t="s">
+        <v>749</v>
+      </c>
+      <c r="D23" t="s">
+        <v>754</v>
+      </c>
+      <c r="E23" t="s">
+        <v>774</v>
+      </c>
+      <c r="F23" t="s">
+        <v>780</v>
+      </c>
+      <c r="G23" t="s">
+        <v>805</v>
+      </c>
+      <c r="H23" t="s">
+        <v>815</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1628</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1628</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1628</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1628</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C24" t="s">
+        <v>749</v>
+      </c>
+      <c r="D24" t="s">
+        <v>754</v>
+      </c>
+      <c r="E24" t="s">
+        <v>774</v>
+      </c>
+      <c r="F24" t="s">
+        <v>781</v>
+      </c>
+      <c r="G24" t="s">
+        <v>806</v>
+      </c>
+      <c r="H24" t="s">
+        <v>816</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1629</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1629</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1629</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1629</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1629</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/input/elsoc/Listado_Variables_ELSOC_Longitudinal_2016_2017_2018_2019.xlsx
+++ b/input/elsoc/Listado_Variables_ELSOC_Longitudinal_2016_2017_2018_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentina Andrade\Documents\GitHub\coes\elsoc-justice\input\elsoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43CA18F-F3D0-4FE5-A0AD-52021619DC90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC82B7A-1B55-497D-B9F0-6C6E0460A6E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="-10910" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7170" yWindow="-10910" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descripcion" sheetId="2" r:id="rId1"/>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7410" uniqueCount="1934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7438" uniqueCount="1938">
   <si>
     <t>Modulo</t>
   </si>
@@ -5989,13 +5989,25 @@
   </si>
   <si>
     <t>Intercalada</t>
+  </si>
+  <si>
+    <t>Justicia distributiva</t>
+  </si>
+  <si>
+    <t>Justicia Distributiva</t>
+  </si>
+  <si>
+    <t>Acciones contenciosas</t>
+  </si>
+  <si>
+    <t>Acciones transgresoras</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6034,12 +6046,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -6974,11 +6980,11 @@
   <dimension ref="A1:U575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I575" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I487" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="G261" sqref="G261"/>
-      <selection pane="bottomRight" activeCell="A387" sqref="A387"/>
+      <selection pane="bottomRight" activeCell="J494" sqref="J494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42886,10 +42892,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1005DD-3C1E-BE46-BCF7-C91CDCAC49A2}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42952,7 +42958,7 @@
         <v>1919</v>
       </c>
       <c r="B2" t="s">
-        <v>1920</v>
+        <v>1936</v>
       </c>
       <c r="C2" t="s">
         <v>1736</v>
@@ -42996,7 +43002,7 @@
         <v>1919</v>
       </c>
       <c r="B3" t="s">
-        <v>1921</v>
+        <v>1937</v>
       </c>
       <c r="C3" t="s">
         <v>1736</v>
@@ -43040,7 +43046,7 @@
         <v>1919</v>
       </c>
       <c r="B4" t="s">
-        <v>1921</v>
+        <v>1937</v>
       </c>
       <c r="C4" t="s">
         <v>1736</v>
@@ -43084,7 +43090,7 @@
         <v>1919</v>
       </c>
       <c r="B5" t="s">
-        <v>1920</v>
+        <v>1936</v>
       </c>
       <c r="C5" t="s">
         <v>1736</v>
@@ -43128,7 +43134,7 @@
         <v>1919</v>
       </c>
       <c r="B6" t="s">
-        <v>1920</v>
+        <v>1936</v>
       </c>
       <c r="C6" t="s">
         <v>1736</v>
@@ -43163,7 +43169,7 @@
         <v>1919</v>
       </c>
       <c r="B7" t="s">
-        <v>1921</v>
+        <v>1937</v>
       </c>
       <c r="C7" t="s">
         <v>1736</v>
@@ -43198,7 +43204,7 @@
         <v>1919</v>
       </c>
       <c r="B8" t="s">
-        <v>1921</v>
+        <v>1937</v>
       </c>
       <c r="C8" t="s">
         <v>1736</v>
@@ -43233,7 +43239,7 @@
         <v>1919</v>
       </c>
       <c r="B9" t="s">
-        <v>1920</v>
+        <v>1936</v>
       </c>
       <c r="C9" t="s">
         <v>1736</v>
@@ -43836,6 +43842,94 @@
         <v>1629</v>
       </c>
       <c r="N24" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>1932</v>
       </c>
     </row>
@@ -43849,7 +43943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5740A22-4F96-47AE-A857-89625ECE3645}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
